--- a/Cleaned-Data/Training Data.xlsx
+++ b/Cleaned-Data/Training Data.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Average GPA</t>
+  </si>
+  <si>
+    <t>Placed 1/0</t>
   </si>
   <si>
     <t>Coding</t>
@@ -372,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,7 +383,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,288 +393,351 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>44.86</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>31.48</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.66</v>
+        <v>1.328</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>55.83</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>52.72</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.115</v>
+        <v>2.492</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>68.48999999999999</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>34.38</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.67</v>
+        <v>4.736</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>32.9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>58.17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.8225</v>
+        <v>3.058</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>43.47</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>17.39</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.605</v>
+        <v>1.284</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>77.54000000000001</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>34.69</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.654999999999999</v>
+        <v>5.324</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>65.23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>54.42</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.285</v>
+        <v>4.228</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>69.93000000000001</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>28.08</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.6775</v>
+        <v>2.942</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>76.28</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>15.64</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.73</v>
+        <v>3.784</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>69.91</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>54.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.8525</v>
+        <v>3.082</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>20.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.112500000000001</v>
+        <v>6.69</v>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
         <v>19.51</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>76.3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.6125</v>
+        <v>4.69</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
         <v>63.34</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>31.96</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.98</v>
+        <v>5.584000000000001</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>66.12</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>55.31</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.334999999999999</v>
+        <v>6.667999999999999</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>42.22</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>60.91</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.1475</v>
+        <v>4.118</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>43.81</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>38.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.535</v>
+        <v>2.828</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>56.9</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>52.62</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>69.41</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>28.7</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5725</v>
+        <v>4.458</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>44.92</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>39.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.53</v>
+        <v>4.424</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>67.59</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>36.4</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -679,685 +745,832 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>83.15000000000001</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>18.74</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.3775</v>
+        <v>6.901999999999999</v>
       </c>
       <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
         <v>20.31</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>73.76000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.012499999999999</v>
+        <v>6.609999999999999</v>
       </c>
       <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
         <v>37.76</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>62.98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.9725</v>
+        <v>5.578</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>43.09</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>60.46</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.550000000000001</v>
+        <v>6.040000000000001</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>41.45</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>56.99</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.124999999999999</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
         <v>56.28</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>54.11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.199999999999999</v>
+        <v>4.959999999999999</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
         <v>32.03</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.74</v>
+        <v>3.192</v>
       </c>
       <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
         <v>54.07</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>22.56</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.99</v>
+        <v>6.592000000000001</v>
       </c>
       <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
         <v>20.14</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>81.06999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.2225</v>
+        <v>6.778</v>
       </c>
       <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
         <v>23.18</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>71.97</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.8</v>
+        <v>4.64</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>38.69</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>45.31</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.49</v>
+        <v>2.992</v>
       </c>
       <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
         <v>56.92</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>37.51</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.335000000000001</v>
+        <v>6.068000000000001</v>
       </c>
       <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
         <v>36.83</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>61.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.985000000000001</v>
+        <v>6.588000000000001</v>
       </c>
       <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
         <v>40.78</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>60.28</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.2725</v>
+        <v>2.618</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
         <v>68.76000000000001</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>36.83</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.27</v>
+        <v>3.415999999999999</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
         <v>58.54</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>26.54</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.3225</v>
+        <v>6.858</v>
       </c>
       <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
         <v>31.01</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>81.83</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.0425</v>
+        <v>3.434</v>
       </c>
       <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>37.66</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>23.24</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.0525</v>
+        <v>3.242</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>60.54</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>26.59</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.5375</v>
+        <v>7.029999999999999</v>
       </c>
       <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
         <v>49.33</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>89.56999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.5275</v>
+        <v>4.622</v>
       </c>
       <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
         <v>59.16</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.8975</v>
+        <v>3.318</v>
       </c>
       <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
         <v>54.26</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>25.17</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.6575</v>
+        <v>6.125999999999999</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>41.23</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>61.33</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.26</v>
+        <v>4.407999999999999</v>
       </c>
       <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
         <v>69.61</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>35.53</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.4475</v>
+        <v>6.157999999999999</v>
       </c>
       <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
         <v>33.43</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>64.22</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.15</v>
+        <v>4.32</v>
       </c>
       <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
         <v>71.65000000000001</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>39.62</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8.220000000000001</v>
+        <v>6.776000000000001</v>
       </c>
       <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
         <v>31.86</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>82.23</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.9375</v>
+        <v>6.35</v>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
         <v>40.28</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>68.52</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.442500000000001</v>
+        <v>5.154000000000001</v>
       </c>
       <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
         <v>37.65</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>44.35</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8.172499999999999</v>
+        <v>6.738</v>
       </c>
       <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
         <v>32.22</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>79.79000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.0175</v>
+        <v>7.414</v>
       </c>
       <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
         <v>20.92</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>82.58</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.9375</v>
+        <v>3.35</v>
       </c>
       <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>72.62</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>22.4</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.415</v>
+        <v>2.932</v>
       </c>
       <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
         <v>60.62</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>24.12</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.3175</v>
+        <v>5.854</v>
       </c>
       <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
         <v>63.39</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>59.91</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.045</v>
+        <v>2.436</v>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
         <v>74.34</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>35.78</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.647500000000001</v>
+        <v>6.118</v>
       </c>
       <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
         <v>58.28</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>68.69</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.5725</v>
+        <v>1.258</v>
       </c>
       <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
         <v>72.65000000000001</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>57.45</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.0725</v>
+        <v>5.657999999999999</v>
       </c>
       <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
         <v>55.44</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>54.04</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.835</v>
+        <v>4.668</v>
       </c>
       <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
         <v>39.58</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>44.06</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.0525</v>
+        <v>4.042</v>
       </c>
       <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
         <v>57.78</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>37.82</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.9175</v>
+        <v>5.734</v>
       </c>
       <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
         <v>38.77</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>61.87</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.295</v>
+        <v>5.036</v>
       </c>
       <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
         <v>34.79</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>45.06</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
         <v>70.45</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>54.07</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.9275</v>
+        <v>4.942</v>
       </c>
       <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
         <v>53.86</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>29.22</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.615</v>
+        <v>6.092000000000001</v>
       </c>
       <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
         <v>61.22</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>61.37</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.595</v>
+        <v>2.876</v>
       </c>
       <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
         <v>60.78</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>27.08</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.7475</v>
+        <v>4.798</v>
       </c>
       <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
         <v>63.75</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>55.34</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.095000000000001</v>
+        <v>5.076000000000001</v>
       </c>
       <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
         <v>16.86</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>40.85</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.74</v>
+        <v>1.392</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
         <v>56.16</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>22.08</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -1365,111 +1578,135 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>35.99</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.585</v>
+        <v>3.068</v>
       </c>
       <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
         <v>56.29</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.2775</v>
+        <v>1.222</v>
       </c>
       <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
         <v>67.59</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>38.17</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.73</v>
+        <v>2.984</v>
       </c>
       <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
         <v>75.68000000000001</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>20.31</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.4175</v>
+        <v>5.934</v>
       </c>
       <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
         <v>42.45</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>62.92</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
         <v>51.22</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>24.95</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.622499999999999</v>
+        <v>7.097999999999999</v>
       </c>
       <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
         <v>21.88</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>87.68000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.9125</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
         <v>33.15</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>64.39</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
@@ -1477,363 +1714,441 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
         <v>66.51000000000001</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>20.29</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.6475</v>
+        <v>4.718</v>
       </c>
       <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
         <v>37.18</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>67.31999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.8125</v>
+        <v>3.25</v>
       </c>
       <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
         <v>64.61</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>21.44</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.382499999999999</v>
+        <v>6.106</v>
       </c>
       <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
         <v>66.15000000000001</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>55.84</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.8175</v>
+        <v>4.654</v>
       </c>
       <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
         <v>37</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>45.77</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.7075</v>
+        <v>1.366</v>
       </c>
       <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
         <v>78.11</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>13.75</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.5525</v>
+        <v>5.242</v>
       </c>
       <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>23.29</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>66.89</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.255000000000001</v>
+        <v>5.204000000000001</v>
       </c>
       <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
         <v>30.53</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>43.33</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.6975</v>
+        <v>1.358</v>
       </c>
       <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
         <v>82.27</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>51.39</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.045</v>
+        <v>2.436</v>
       </c>
       <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
         <v>71.31</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>55.76</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
         <v>37.28</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>25.06</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.85</v>
+        <v>6.48</v>
       </c>
       <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
         <v>30.46</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>72.94</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.6775</v>
+        <v>1.342</v>
       </c>
       <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>19.26</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.635</v>
+        <v>4.708</v>
       </c>
       <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
         <v>34</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>80.81999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.56</v>
+        <v>6.248</v>
       </c>
       <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
         <v>37.92</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>77.29000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.609999999999999</v>
+        <v>5.488</v>
       </c>
       <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
         <v>21.22</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>66.13</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.74</v>
+        <v>1.392</v>
       </c>
       <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
         <v>73.25</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>30.89</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.02</v>
+        <v>7.415999999999999</v>
       </c>
       <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
         <v>21.63</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>74.28</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
         <v>39.93</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>42.32</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.1025</v>
+        <v>3.482</v>
       </c>
       <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
         <v>30.5</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>42.67</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.192500000000001</v>
+        <v>6.554</v>
       </c>
       <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
         <v>41.57</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>79.34</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.49</v>
+        <v>6.192</v>
       </c>
       <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
         <v>33.36</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>64.69</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.9975</v>
+        <v>6.598000000000001</v>
       </c>
       <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
         <v>19.68</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>64.70999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.02</v>
+        <v>3.216</v>
       </c>
       <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
         <v>68.84999999999999</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>17.04</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.0725</v>
+        <v>4.858</v>
       </c>
       <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
         <v>17.96</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>58.71</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
         <v>35.15</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>46.89</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
@@ -1841,111 +2156,135 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
         <v>77</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>15.13</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.3975</v>
+        <v>4.518</v>
       </c>
       <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
         <v>59.06</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>49.61</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.585</v>
+        <v>4.668</v>
       </c>
       <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
         <v>17.56</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>58.65</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.85</v>
+        <v>2.28</v>
       </c>
       <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
         <v>81.48999999999999</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>33.55</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
         <v>45.03</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>31.52</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.525</v>
+        <v>6.220000000000001</v>
       </c>
       <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
         <v>45.71</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>76.25</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.885</v>
+        <v>4.907999999999999</v>
       </c>
       <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
         <v>45.58</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>57.95</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.6675</v>
+        <v>1.534</v>
       </c>
       <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
         <v>73.34999999999999</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>31.94</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
@@ -1953,699 +2292,849 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
         <v>77.98</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>13.58</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.4625</v>
+        <v>7.57</v>
       </c>
       <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
         <v>18.63</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>88.19</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.925</v>
+        <v>3.94</v>
       </c>
       <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
         <v>73.92</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>35.71</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.635</v>
+        <v>1.308</v>
       </c>
       <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
         <v>73.34999999999999</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>17.38</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.202500000000001</v>
+        <v>5.162000000000001</v>
       </c>
       <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
         <v>20.01</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>74.01000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.7175</v>
+        <v>4.774</v>
       </c>
       <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
         <v>37.71</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>68.43000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.6875</v>
+        <v>2.95</v>
       </c>
       <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
         <v>52.34</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>30.49</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.805</v>
+        <v>4.843999999999999</v>
       </c>
       <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
         <v>30.24</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>66.08</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.264999999999999</v>
+        <v>7.411999999999999</v>
       </c>
       <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
         <v>20.28</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>88.73</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.615</v>
+        <v>6.292</v>
       </c>
       <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
         <v>53.14</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>61.12</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.799999999999999</v>
+        <v>7.239999999999999</v>
       </c>
       <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
         <v>32.09</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>89.65000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.1775</v>
+        <v>2.542</v>
       </c>
       <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
         <v>75.47</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>15.94</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.9175</v>
+        <v>3.334000000000001</v>
       </c>
       <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
         <v>35.56</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>42.16</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8.7425</v>
+        <v>6.994</v>
       </c>
       <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
         <v>22.29</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>88.18000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.595</v>
+        <v>1.276</v>
       </c>
       <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
         <v>74.81999999999999</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>14.62</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.7725</v>
+        <v>3.218</v>
       </c>
       <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
         <v>62.29</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>30.33</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.5825</v>
+        <v>2.866</v>
       </c>
       <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
         <v>74.75</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>29.13</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.0525</v>
+        <v>2.442</v>
       </c>
       <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
         <v>75.09</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>27.79</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7.775</v>
+        <v>6.42</v>
       </c>
       <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
         <v>34.41</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>65.72</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7.334999999999999</v>
+        <v>6.068</v>
       </c>
       <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
         <v>34.38</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>74.23999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7.645</v>
+        <v>6.116</v>
       </c>
       <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
         <v>41.91</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>75.11</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.975</v>
+        <v>4.779999999999999</v>
       </c>
       <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
         <v>43.13</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>39.97</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.375</v>
+        <v>3.5</v>
       </c>
       <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
         <v>36.1</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>42.3</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.5525</v>
+        <v>4.642</v>
       </c>
       <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
         <v>46.44</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>40.97</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.48</v>
+        <v>4.584000000000001</v>
       </c>
       <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
         <v>72.37</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>38.86</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
         <v>70.72</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>20.46</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8.165000000000001</v>
+        <v>6.532000000000001</v>
       </c>
       <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
         <v>17.06</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>90.76000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7.7225</v>
+        <v>6.378</v>
       </c>
       <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
         <v>44.54</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>59.64</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.275</v>
+        <v>6.62</v>
       </c>
       <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
         <v>41.03</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>75.31</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.3525</v>
+        <v>3.682</v>
       </c>
       <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
         <v>42.56</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>30.17</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:5">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
         <v>44.86</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>31.48</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.66</v>
+        <v>1.328</v>
       </c>
       <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
         <v>55.83</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>52.72</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:5">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.115</v>
+        <v>2.492</v>
       </c>
       <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
         <v>68.48999999999999</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>34.38</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:5">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.67</v>
+        <v>4.736</v>
       </c>
       <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
         <v>32.9</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>58.17</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:5">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.8225</v>
+        <v>3.058</v>
       </c>
       <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
         <v>43.47</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>17.39</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:5">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.605</v>
+        <v>1.284</v>
       </c>
       <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
         <v>77.54000000000001</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>34.69</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:5">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.654999999999999</v>
+        <v>5.324</v>
       </c>
       <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
         <v>65.23</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>54.42</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:5">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.285</v>
+        <v>4.228</v>
       </c>
       <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
         <v>69.93000000000001</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>28.08</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:5">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.6775</v>
+        <v>2.942</v>
       </c>
       <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
         <v>76.28</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>15.64</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:5">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.73</v>
+        <v>3.784</v>
       </c>
       <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
         <v>69.91</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>54.01</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:5">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.8525</v>
+        <v>3.082</v>
       </c>
       <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>20.25</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8.112500000000001</v>
+        <v>6.69</v>
       </c>
       <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
         <v>19.51</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>76.3</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:5">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.6125</v>
+        <v>4.69</v>
       </c>
       <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
         <v>63.34</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>31.96</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:5">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>6.98</v>
+        <v>5.584000000000001</v>
       </c>
       <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
         <v>66.12</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>55.31</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:5">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8.334999999999999</v>
+        <v>6.667999999999999</v>
       </c>
       <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
         <v>42.22</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>60.91</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:5">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.1475</v>
+        <v>4.118</v>
       </c>
       <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
         <v>43.81</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>38.62</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:5">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.535</v>
+        <v>2.828</v>
       </c>
       <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
         <v>56.9</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>52.62</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:5">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
         <v>69.41</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>28.7</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:5">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.5725</v>
+        <v>4.458</v>
       </c>
       <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
         <v>44.92</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>39.1</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:5">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.53</v>
+        <v>4.424</v>
       </c>
       <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
         <v>67.59</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>36.4</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:5">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
@@ -2653,685 +3142,832 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
         <v>83.16</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>18.74</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:5">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>8.3775</v>
+        <v>6.901999999999999</v>
       </c>
       <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
         <v>20.31</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>73.76000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:5">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>8.012499999999999</v>
+        <v>6.609999999999999</v>
       </c>
       <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
         <v>37.76</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>62.98</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:5">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>6.9725</v>
+        <v>5.578</v>
       </c>
       <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
         <v>43.09</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>60.46</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:5">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7.550000000000001</v>
+        <v>6.040000000000001</v>
       </c>
       <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
         <v>41.45</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>56.99</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:5">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7.124999999999999</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
         <v>56.28</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>54.11</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:5">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>6.199999999999999</v>
+        <v>4.959999999999999</v>
       </c>
       <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
         <v>32.03</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.74</v>
+        <v>3.192</v>
       </c>
       <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
         <v>54.07</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>22.56</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:5">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>7.99</v>
+        <v>6.592000000000001</v>
       </c>
       <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
         <v>20.14</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>81.06999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>8.2225</v>
+        <v>6.778</v>
       </c>
       <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
         <v>23.18</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>71.97</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:5">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.8</v>
+        <v>4.64</v>
       </c>
       <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
         <v>38.69</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>45.31</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:5">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.49</v>
+        <v>2.992</v>
       </c>
       <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
         <v>56.92</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>37.51</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>7.335000000000001</v>
+        <v>6.068000000000001</v>
       </c>
       <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
         <v>36.83</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>61.9</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:5">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>7.985000000000001</v>
+        <v>6.588000000000001</v>
       </c>
       <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
         <v>40.78</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>60.28</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:5">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.2725</v>
+        <v>2.618</v>
       </c>
       <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
         <v>68.76000000000001</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>36.83</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:5">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.27</v>
+        <v>3.415999999999999</v>
       </c>
       <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
         <v>58.54</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>26.54</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:5">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>8.3225</v>
+        <v>6.858</v>
       </c>
       <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
         <v>31.01</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>81.83</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:5">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.0425</v>
+        <v>3.434</v>
       </c>
       <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
         <v>37.66</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>23.24</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:5">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.0525</v>
+        <v>3.242</v>
       </c>
       <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
         <v>60.54</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>26.59</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>8.5375</v>
+        <v>7.029999999999999</v>
       </c>
       <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
         <v>49.33</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>89.56999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:5">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.5275</v>
+        <v>4.622</v>
       </c>
       <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
         <v>59.16</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:5">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.8975</v>
+        <v>3.318</v>
       </c>
       <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
         <v>54.26</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>25.17</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>7.6575</v>
+        <v>6.125999999999999</v>
       </c>
       <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
         <v>41.23</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>61.33</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:5">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.26</v>
+        <v>4.407999999999999</v>
       </c>
       <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
         <v>69.61</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>35.53</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:5">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>7.4475</v>
+        <v>6.157999999999999</v>
       </c>
       <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
         <v>33.43</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>64.22</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:5">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.15</v>
+        <v>4.32</v>
       </c>
       <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
         <v>71.65000000000001</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>39.62</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:5">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>8.220000000000001</v>
+        <v>6.776000000000001</v>
       </c>
       <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
         <v>31.86</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>82.23</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>7.9375</v>
+        <v>6.35</v>
       </c>
       <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
         <v>40.28</v>
       </c>
-      <c r="D190" t="n">
+      <c r="E190" t="n">
         <v>68.52</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6.442500000000001</v>
+        <v>5.154000000000001</v>
       </c>
       <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
         <v>37.65</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>44.35</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:5">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>8.172499999999999</v>
+        <v>6.738</v>
       </c>
       <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
         <v>32.22</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>79.79000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:5">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9.0175</v>
+        <v>7.414</v>
       </c>
       <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
         <v>20.92</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>82.58</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3.9375</v>
+        <v>3.35</v>
       </c>
       <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
         <v>72.62</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>22.4</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.415</v>
+        <v>2.932</v>
       </c>
       <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
         <v>60.62</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>24.12</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>7.3175</v>
+        <v>5.854</v>
       </c>
       <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
         <v>63.39</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>59.91</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3.045</v>
+        <v>2.436</v>
       </c>
       <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
         <v>74.34</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>35.78</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>7.647500000000001</v>
+        <v>6.118</v>
       </c>
       <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
         <v>58.28</v>
       </c>
-      <c r="D198" t="n">
+      <c r="E198" t="n">
         <v>68.69</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.5725</v>
+        <v>1.258</v>
       </c>
       <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
         <v>72.65000000000001</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>57.45</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:5">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7.0725</v>
+        <v>5.657999999999999</v>
       </c>
       <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
         <v>55.44</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>54.04</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:5">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.835</v>
+        <v>4.668</v>
       </c>
       <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
         <v>39.58</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>44.06</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.0525</v>
+        <v>4.042</v>
       </c>
       <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
         <v>57.78</v>
       </c>
-      <c r="D202" t="n">
+      <c r="E202" t="n">
         <v>37.82</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:5">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6.9175</v>
+        <v>5.734</v>
       </c>
       <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
         <v>38.77</v>
       </c>
-      <c r="D203" t="n">
+      <c r="E203" t="n">
         <v>61.87</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:5">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>6.295</v>
+        <v>5.036</v>
       </c>
       <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
         <v>34.79</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>45.06</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:5">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
         <v>70.45</v>
       </c>
-      <c r="D205" t="n">
+      <c r="E205" t="n">
         <v>54.07</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:5">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5.9275</v>
+        <v>4.942</v>
       </c>
       <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
         <v>53.86</v>
       </c>
-      <c r="D206" t="n">
+      <c r="E206" t="n">
         <v>29.22</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:5">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>7.615</v>
+        <v>6.092000000000001</v>
       </c>
       <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
         <v>61.23</v>
       </c>
-      <c r="D207" t="n">
+      <c r="E207" t="n">
         <v>61.37</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:5">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>3.595</v>
+        <v>2.876</v>
       </c>
       <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
         <v>60.78</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>27.08</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:5">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5.7475</v>
+        <v>4.798</v>
       </c>
       <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="n">
         <v>63.75</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>55.34</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:5">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6.095000000000001</v>
+        <v>5.076000000000001</v>
       </c>
       <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="n">
         <v>16.86</v>
       </c>
-      <c r="D210" t="n">
+      <c r="E210" t="n">
         <v>40.85</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:5">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.74</v>
+        <v>1.392</v>
       </c>
       <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
         <v>56.16</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>22.08</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:5">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
@@ -3339,111 +3975,135 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>35.99</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>3.585</v>
+        <v>3.068</v>
       </c>
       <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
         <v>56.29</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:5">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.2775</v>
+        <v>1.222</v>
       </c>
       <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
         <v>67.59</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>38.17</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:5">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3.73</v>
+        <v>2.984</v>
       </c>
       <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
         <v>75.68000000000001</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>20.31</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:5">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>7.4175</v>
+        <v>5.934</v>
       </c>
       <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
         <v>42.45</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>62.92</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:5">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
         <v>51.22</v>
       </c>
-      <c r="D217" t="n">
+      <c r="E217" t="n">
         <v>24.95</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:5">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>8.622499999999999</v>
+        <v>7.097999999999999</v>
       </c>
       <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="n">
         <v>21.88</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>87.68000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:5">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>7.9125</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
         <v>33.15</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>64.39</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:5">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
@@ -3451,363 +4111,441 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
         <v>66.51000000000001</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>20.29</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:5">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5.6475</v>
+        <v>4.718</v>
       </c>
       <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
         <v>37.18</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>67.31999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:5">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>3.8125</v>
+        <v>3.25</v>
       </c>
       <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
         <v>64.61</v>
       </c>
-      <c r="D222" t="n">
+      <c r="E222" t="n">
         <v>21.44</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:5">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>7.382499999999999</v>
+        <v>6.106</v>
       </c>
       <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
         <v>66.15000000000001</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>55.84</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:5">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5.8175</v>
+        <v>4.654</v>
       </c>
       <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
         <v>37</v>
       </c>
-      <c r="D224" t="n">
+      <c r="E224" t="n">
         <v>45.77</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.7075</v>
+        <v>1.366</v>
       </c>
       <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
         <v>78.11</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>13.76</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6.5525</v>
+        <v>5.242</v>
       </c>
       <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
         <v>23.29</v>
       </c>
-      <c r="D226" t="n">
+      <c r="E226" t="n">
         <v>66.89</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:5">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6.255000000000001</v>
+        <v>5.204000000000001</v>
       </c>
       <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
         <v>30.53</v>
       </c>
-      <c r="D227" t="n">
+      <c r="E227" t="n">
         <v>43.33</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:5">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.6975</v>
+        <v>1.358</v>
       </c>
       <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
         <v>82.27</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>51.39</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:5">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3.045</v>
+        <v>2.436</v>
       </c>
       <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
         <v>71.31</v>
       </c>
-      <c r="D229" t="n">
+      <c r="E229" t="n">
         <v>55.76</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:5">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
         <v>37.28</v>
       </c>
-      <c r="D230" t="n">
+      <c r="E230" t="n">
         <v>25.06</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:5">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>7.85</v>
+        <v>6.48</v>
       </c>
       <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="n">
         <v>30.46</v>
       </c>
-      <c r="D231" t="n">
+      <c r="E231" t="n">
         <v>72.94</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.6775</v>
+        <v>1.342</v>
       </c>
       <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="D232" t="n">
+      <c r="E232" t="n">
         <v>19.26</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>5.635</v>
+        <v>4.708</v>
       </c>
       <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
         <v>34</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>80.81999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>7.56</v>
+        <v>6.248</v>
       </c>
       <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="n">
         <v>37.92</v>
       </c>
-      <c r="D234" t="n">
+      <c r="E234" t="n">
         <v>77.29000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6.609999999999999</v>
+        <v>5.488</v>
       </c>
       <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
         <v>21.22</v>
       </c>
-      <c r="D235" t="n">
+      <c r="E235" t="n">
         <v>66.13</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.74</v>
+        <v>1.392</v>
       </c>
       <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
         <v>73.25</v>
       </c>
-      <c r="D236" t="n">
+      <c r="E236" t="n">
         <v>30.89</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:5">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>9.02</v>
+        <v>7.415999999999999</v>
       </c>
       <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
         <v>21.63</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>74.28</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:5">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
         <v>39.93</v>
       </c>
-      <c r="D238" t="n">
+      <c r="E238" t="n">
         <v>42.32</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:5">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4.1025</v>
+        <v>3.482</v>
       </c>
       <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="n">
         <v>30.5</v>
       </c>
-      <c r="D239" t="n">
+      <c r="E239" t="n">
         <v>42.67</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:5">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>8.192500000000001</v>
+        <v>6.554</v>
       </c>
       <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
         <v>41.57</v>
       </c>
-      <c r="D240" t="n">
+      <c r="E240" t="n">
         <v>79.34</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:5">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7.49</v>
+        <v>6.192</v>
       </c>
       <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
         <v>33.36</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>64.69</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:5">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7.9975</v>
+        <v>6.598000000000001</v>
       </c>
       <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="n">
         <v>19.68</v>
       </c>
-      <c r="D242" t="n">
+      <c r="E242" t="n">
         <v>64.70999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:5">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4.02</v>
+        <v>3.216</v>
       </c>
       <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
         <v>68.84999999999999</v>
       </c>
-      <c r="D243" t="n">
+      <c r="E243" t="n">
         <v>17.04</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:5">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>6.0725</v>
+        <v>4.858</v>
       </c>
       <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
         <v>17.96</v>
       </c>
-      <c r="D244" t="n">
+      <c r="E244" t="n">
         <v>58.71</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:5">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
         <v>35.15</v>
       </c>
-      <c r="D245" t="n">
+      <c r="E245" t="n">
         <v>46.89</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:5">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
@@ -3815,111 +4553,135 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
         <v>77</v>
       </c>
-      <c r="D246" t="n">
+      <c r="E246" t="n">
         <v>15.13</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:5">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>5.3975</v>
+        <v>4.518</v>
       </c>
       <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
         <v>59.06</v>
       </c>
-      <c r="D247" t="n">
+      <c r="E247" t="n">
         <v>49.61</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:5">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>5.585</v>
+        <v>4.668</v>
       </c>
       <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="n">
         <v>17.56</v>
       </c>
-      <c r="D248" t="n">
+      <c r="E248" t="n">
         <v>58.65</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:5">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2.85</v>
+        <v>2.28</v>
       </c>
       <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
         <v>81.48999999999999</v>
       </c>
-      <c r="D249" t="n">
+      <c r="E249" t="n">
         <v>33.55</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:5">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="n">
         <v>45.03</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>31.52</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:5">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7.525</v>
+        <v>6.220000000000001</v>
       </c>
       <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
         <v>45.71</v>
       </c>
-      <c r="D251" t="n">
+      <c r="E251" t="n">
         <v>76.25</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:5">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5.885</v>
+        <v>4.907999999999999</v>
       </c>
       <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
         <v>45.58</v>
       </c>
-      <c r="D252" t="n">
+      <c r="E252" t="n">
         <v>57.95</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:5">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.6675</v>
+        <v>1.534</v>
       </c>
       <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
         <v>73.34999999999999</v>
       </c>
-      <c r="D253" t="n">
+      <c r="E253" t="n">
         <v>31.94</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:5">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
@@ -3927,415 +4689,505 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
         <v>77.98</v>
       </c>
-      <c r="D254" t="n">
+      <c r="E254" t="n">
         <v>13.58</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:5">
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9.4625</v>
+        <v>7.57</v>
       </c>
       <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
         <v>18.63</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>88.19</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:5">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4.925</v>
+        <v>3.94</v>
       </c>
       <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
         <v>73.92</v>
       </c>
-      <c r="D256" t="n">
+      <c r="E256" t="n">
         <v>35.71</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:5">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1.635</v>
+        <v>1.308</v>
       </c>
       <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
         <v>73.34999999999999</v>
       </c>
-      <c r="D257" t="n">
+      <c r="E257" t="n">
         <v>17.38</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:5">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>6.202500000000001</v>
+        <v>5.162000000000001</v>
       </c>
       <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
         <v>20.01</v>
       </c>
-      <c r="D258" t="n">
+      <c r="E258" t="n">
         <v>74.02</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:5">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5.7175</v>
+        <v>4.774</v>
       </c>
       <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
         <v>37.71</v>
       </c>
-      <c r="D259" t="n">
+      <c r="E259" t="n">
         <v>68.43000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:5">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>3.6875</v>
+        <v>2.95</v>
       </c>
       <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
         <v>52.34</v>
       </c>
-      <c r="D260" t="n">
+      <c r="E260" t="n">
         <v>30.49</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:5">
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5.805</v>
+        <v>4.843999999999999</v>
       </c>
       <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
         <v>30.24</v>
       </c>
-      <c r="D261" t="n">
+      <c r="E261" t="n">
         <v>66.08</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:5">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>9.264999999999999</v>
+        <v>7.411999999999999</v>
       </c>
       <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
         <v>20.28</v>
       </c>
-      <c r="D262" t="n">
+      <c r="E262" t="n">
         <v>88.73</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:5">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>7.615</v>
+        <v>6.292</v>
       </c>
       <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
         <v>53.14</v>
       </c>
-      <c r="D263" t="n">
+      <c r="E263" t="n">
         <v>61.12</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:5">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>8.799999999999999</v>
+        <v>7.239999999999999</v>
       </c>
       <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
         <v>32.09</v>
       </c>
-      <c r="D264" t="n">
+      <c r="E264" t="n">
         <v>89.65000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:5">
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>3.1775</v>
+        <v>2.542</v>
       </c>
       <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
         <v>75.47</v>
       </c>
-      <c r="D265" t="n">
+      <c r="E265" t="n">
         <v>15.94</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:5">
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>3.9175</v>
+        <v>3.334000000000001</v>
       </c>
       <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
         <v>35.56</v>
       </c>
-      <c r="D266" t="n">
+      <c r="E266" t="n">
         <v>42.16</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:5">
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>8.7425</v>
+        <v>6.994</v>
       </c>
       <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
         <v>22.29</v>
       </c>
-      <c r="D267" t="n">
+      <c r="E267" t="n">
         <v>88.18000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:5">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.595</v>
+        <v>1.276</v>
       </c>
       <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
         <v>74.81999999999999</v>
       </c>
-      <c r="D268" t="n">
+      <c r="E268" t="n">
         <v>14.62</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:5">
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>3.7725</v>
+        <v>3.218</v>
       </c>
       <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="n">
         <v>62.29</v>
       </c>
-      <c r="D269" t="n">
+      <c r="E269" t="n">
         <v>30.33</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:5">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>3.5825</v>
+        <v>2.866</v>
       </c>
       <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
         <v>74.75</v>
       </c>
-      <c r="D270" t="n">
+      <c r="E270" t="n">
         <v>29.13</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:5">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>3.0525</v>
+        <v>2.442</v>
       </c>
       <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
         <v>75.09</v>
       </c>
-      <c r="D271" t="n">
+      <c r="E271" t="n">
         <v>27.79</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:5">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>7.775</v>
+        <v>6.42</v>
       </c>
       <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
         <v>34.41</v>
       </c>
-      <c r="D272" t="n">
+      <c r="E272" t="n">
         <v>65.72</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:5">
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>7.334999999999999</v>
+        <v>6.068</v>
       </c>
       <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
         <v>34.38</v>
       </c>
-      <c r="D273" t="n">
+      <c r="E273" t="n">
         <v>74.23999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:5">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>7.645</v>
+        <v>6.116</v>
       </c>
       <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
         <v>41.91</v>
       </c>
-      <c r="D274" t="n">
+      <c r="E274" t="n">
         <v>75.12</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:5">
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>5.975</v>
+        <v>4.779999999999999</v>
       </c>
       <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
         <v>43.13</v>
       </c>
-      <c r="D275" t="n">
+      <c r="E275" t="n">
         <v>39.97</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:5">
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>4.375</v>
+        <v>3.5</v>
       </c>
       <c r="C276" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
         <v>36.1</v>
       </c>
-      <c r="D276" t="n">
+      <c r="E276" t="n">
         <v>42.3</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:5">
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5.5525</v>
+        <v>4.642</v>
       </c>
       <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="n">
         <v>46.44</v>
       </c>
-      <c r="D277" t="n">
+      <c r="E277" t="n">
         <v>40.97</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:5">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>5.48</v>
+        <v>4.584000000000001</v>
       </c>
       <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
         <v>72.37</v>
       </c>
-      <c r="D278" t="n">
+      <c r="E278" t="n">
         <v>38.86</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:5">
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
         <v>70.72</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>20.46</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:5">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>8.165000000000001</v>
+        <v>6.532000000000001</v>
       </c>
       <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
         <v>17.06</v>
       </c>
-      <c r="D280" t="n">
+      <c r="E280" t="n">
         <v>90.76000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:5">
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7.7225</v>
+        <v>6.378</v>
       </c>
       <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
         <v>44.54</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>59.64</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:5">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>8.275</v>
+        <v>6.62</v>
       </c>
       <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
         <v>41.03</v>
       </c>
-      <c r="D282" t="n">
+      <c r="E282" t="n">
         <v>75.31</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:5">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4.3525</v>
+        <v>3.682</v>
       </c>
       <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
         <v>42.56</v>
       </c>
-      <c r="D283" t="n">
+      <c r="E283" t="n">
         <v>30.17</v>
       </c>
     </row>
